--- a/data/trans_bre/P21_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.224149502104734</v>
+        <v>3.082952877655865</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.349832534394285</v>
+        <v>0.5469671971268318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2391581878626907</v>
+        <v>0.864676664071814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3760633367897861</v>
+        <v>0.05731955691503639</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1523336158968906</v>
+        <v>0.1462328319683687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04179866475334792</v>
+        <v>0.01958385465825966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.007401914211707043</v>
+        <v>0.02973157150592387</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0107065748167998</v>
+        <v>0.002458226789548426</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.19690776247819</v>
+        <v>9.958115993499355</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.804264988108203</v>
+        <v>8.740714660478631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.29465906488352</v>
+        <v>8.578873277675665</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.840187088146303</v>
+        <v>8.580765314368648</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5884668053196098</v>
+        <v>0.5599666692129963</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3710860722865018</v>
+        <v>0.3757029615724433</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4978578020387953</v>
+        <v>0.519172786541617</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4045494344478195</v>
+        <v>0.4046116091238405</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.357530870695691</v>
+        <v>4.120041996597525</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.278480925444919</v>
+        <v>3.366168460651074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5460038578155315</v>
+        <v>0.7413628404622755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.332210915352293</v>
+        <v>1.035602789990196</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2320711304120335</v>
+        <v>0.2251529100382039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1563154446034495</v>
+        <v>0.1525229670510457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02989763087004084</v>
+        <v>0.04042880690008692</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06387358353805003</v>
+        <v>0.05088500405994565</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.926029441934972</v>
+        <v>9.875206008861673</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.976749997981992</v>
+        <v>8.918208376446103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.592561719724905</v>
+        <v>5.812500823759873</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.606626500328343</v>
+        <v>6.317551953639236</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6411524240528294</v>
+        <v>0.6453198539351448</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4917914977248463</v>
+        <v>0.4768764867382995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3643336485449667</v>
+        <v>0.3735752390870086</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3728426966745527</v>
+        <v>0.3573200651726758</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>11.00875784896447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.447698577672464</v>
+        <v>3.447698577672462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5424980745450861</v>
@@ -849,7 +849,7 @@
         <v>0.8010636973354532</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1535667285882183</v>
+        <v>0.1535667285882182</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.16615817625891</v>
+        <v>2.554438403460722</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.229582753748577</v>
+        <v>5.273480181295788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.309727674084138</v>
+        <v>5.436665676498797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.506529380536221</v>
+        <v>-1.50652116989651</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1987832817357927</v>
+        <v>0.1476226987337751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2972789428302084</v>
+        <v>0.3082725565325468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3935942237391979</v>
+        <v>0.3528879404797869</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06342527837604149</v>
+        <v>-0.05827121688360242</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.2535228351532</v>
+        <v>12.27585512468345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.9377340880818</v>
+        <v>15.8640175893892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.9661698901271</v>
+        <v>15.52952930505112</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.956845733297468</v>
+        <v>8.05404084099156</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.108534162939555</v>
+        <v>1.001141181923411</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.342408338569042</v>
+        <v>1.388543267546205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.380898331081728</v>
+        <v>1.371206128584626</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3982040949450995</v>
+        <v>0.4128109497961214</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.817936693610303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.25457957070349</v>
+        <v>4.254579570703493</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4258741673665667</v>
@@ -949,7 +949,7 @@
         <v>0.2892499210185397</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2044291616379224</v>
+        <v>0.2044291616379225</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.372991071365798</v>
+        <v>5.481597295093241</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.803554660369531</v>
+        <v>4.716145447936318</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.054939476504411</v>
+        <v>2.967637429132617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.210271991943999</v>
+        <v>2.278427243306558</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2948741151093336</v>
+        <v>0.30344729908968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2160099058337242</v>
+        <v>0.2146679993629403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1777019300605954</v>
+        <v>0.1666629898345503</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1014893729325555</v>
+        <v>0.1016402391602621</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.148041403699288</v>
+        <v>9.23258432347127</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.182875688301289</v>
+        <v>8.98816334414577</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.901351898367666</v>
+        <v>6.70293294047554</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.071832662019708</v>
+        <v>6.124785828395848</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5688242912059881</v>
+        <v>0.5751052650040417</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.468021144121257</v>
+        <v>0.4475760095810852</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4478640121661613</v>
+        <v>0.4228952021567072</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3133794222530258</v>
+        <v>0.3118429423515699</v>
       </c>
     </row>
     <row r="16">
